--- a/prj_alpha/Project Outputs for prj_alpha/prj_alpha.xlsx
+++ b/prj_alpha/Project Outputs for prj_alpha/prj_alpha.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="10660"/>
+    <workbookView/>
   </bookViews>
   <sheets>
     <sheet name="prj_alpha" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="111">
   <si>
     <t>Comment</t>
   </si>
@@ -85,9 +85,6 @@
     <t>TFT</t>
   </si>
   <si>
-    <t>10PIN，0.5mm脚间距，翻盖下接</t>
-  </si>
-  <si>
     <t>CON1</t>
   </si>
   <si>
@@ -97,6 +94,18 @@
     <t>TFT_SPI_10PIN</t>
   </si>
   <si>
+    <t>connector</t>
+  </si>
+  <si>
+    <t>CON2, CON3, CON5, CON6</t>
+  </si>
+  <si>
+    <t>PIN-1-TEST</t>
+  </si>
+  <si>
+    <t>PIN-1</t>
+  </si>
+  <si>
     <t>TYPE-C</t>
   </si>
   <si>
@@ -106,10 +115,10 @@
     <t>type-c</t>
   </si>
   <si>
-    <t>LED</t>
-  </si>
-  <si>
-    <t>贴片LED，白色</t>
+    <t>LED-BLUE</t>
+  </si>
+  <si>
+    <t>贴片LED</t>
   </si>
   <si>
     <t>DS1</t>
@@ -121,12 +130,15 @@
     <t>LED-SMD</t>
   </si>
   <si>
-    <t>贴片LED，蓝色</t>
+    <t>LED-CORE</t>
   </si>
   <si>
     <t>DS2, DS3</t>
   </si>
   <si>
+    <t>LED 0603R</t>
+  </si>
+  <si>
     <t>TACT 4P</t>
   </si>
   <si>
@@ -166,6 +178,21 @@
     <t>MIC-6022</t>
   </si>
   <si>
+    <t>UART3</t>
+  </si>
+  <si>
+    <t>Header, 5-Pin</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>CON-1.27*5</t>
+  </si>
+  <si>
+    <t>Header 5</t>
+  </si>
+  <si>
     <t>SS8050</t>
   </si>
   <si>
@@ -217,7 +244,7 @@
     <t>R5</t>
   </si>
   <si>
-    <t>R 0805</t>
+    <t>0805</t>
   </si>
   <si>
     <t>0R</t>
@@ -260,15 +287,6 @@
   </si>
   <si>
     <t>R23</t>
-  </si>
-  <si>
-    <t>Micro SD</t>
-  </si>
-  <si>
-    <t>Micro SD卡</t>
-  </si>
-  <si>
-    <t>TF_CARD1</t>
   </si>
   <si>
     <t>wm8978</t>
@@ -1515,15 +1533,15 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L20" sqref="L19:L20"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="6" width="18.8454545454545" customWidth="1"/>
+    <col min="1" max="6" width="17.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:6">
@@ -1546,7 +1564,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" ht="28" spans="1:6">
+    <row r="2" ht="40.5" spans="1:6">
       <c r="A2" s="14" t="s">
         <v>6</v>
       </c>
@@ -1570,9 +1588,7 @@
       <c r="A3" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="17" t="s">
-        <v>7</v>
-      </c>
+      <c r="B3" s="9"/>
       <c r="C3" s="17" t="s">
         <v>12</v>
       </c>
@@ -1586,7 +1602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" ht="28" spans="1:6">
+    <row r="4" ht="40.5" spans="1:6">
       <c r="A4" s="16" t="s">
         <v>13</v>
       </c>
@@ -1630,9 +1646,7 @@
       <c r="A6" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="17" t="s">
-        <v>7</v>
-      </c>
+      <c r="B6" s="9"/>
       <c r="C6" s="17" t="s">
         <v>18</v>
       </c>
@@ -1650,9 +1664,7 @@
       <c r="A7" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="17" t="s">
-        <v>7</v>
-      </c>
+      <c r="B7" s="9"/>
       <c r="C7" s="17" t="s">
         <v>20</v>
       </c>
@@ -1666,61 +1678,57 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" ht="28" spans="1:6">
+    <row r="8" spans="1:6">
       <c r="A8" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="9"/>
+      <c r="C8" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="D8" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="E8" s="17" t="s">
         <v>24</v>
-      </c>
-      <c r="E8" s="17" t="s">
-        <v>25</v>
       </c>
       <c r="F8" s="10">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" ht="27" spans="1:6">
       <c r="A9" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B9" s="17" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="E9" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="17" t="s">
-        <v>26</v>
-      </c>
       <c r="F9" s="10">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="9"/>
+      <c r="C10" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="D10" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="17" t="s">
-        <v>32</v>
-      </c>
       <c r="E10" s="17" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F10" s="10">
         <v>1</v>
@@ -1728,30 +1736,30 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="16" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B11" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="D11" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="17" t="s">
-        <v>32</v>
-      </c>
       <c r="E11" s="17" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F11" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C12" s="17" t="s">
         <v>38</v>
@@ -1760,7 +1768,7 @@
         <v>39</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F12" s="10">
         <v>2</v>
@@ -1768,30 +1776,30 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="C13" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="D13" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="E13" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="E13" s="17" t="s">
-        <v>45</v>
-      </c>
       <c r="F13" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="17" t="s">
         <v>46</v>
-      </c>
-      <c r="B14" s="17" t="s">
-        <v>7</v>
       </c>
       <c r="C14" s="17" t="s">
         <v>47</v>
@@ -1800,7 +1808,7 @@
         <v>48</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F14" s="10">
         <v>1</v>
@@ -1808,11 +1816,9 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="B15" s="17" t="s">
         <v>50</v>
       </c>
+      <c r="B15" s="9"/>
       <c r="C15" s="17" t="s">
         <v>51</v>
       </c>
@@ -1820,7 +1826,7 @@
         <v>52</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F15" s="10">
         <v>1</v>
@@ -1828,10 +1834,10 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" s="17" t="s">
         <v>54</v>
-      </c>
-      <c r="B16" s="17" t="s">
-        <v>7</v>
       </c>
       <c r="C16" s="17" t="s">
         <v>55</v>
@@ -1851,116 +1857,112 @@
         <v>58</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F17" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="B18" s="17" t="s">
-        <v>7</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="B18" s="9"/>
       <c r="C18" s="17" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="E18" s="17" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="F18" s="10">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="16" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B19" s="17" t="s">
         <v>7</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="E19" s="17" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="F19" s="10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" ht="27" spans="1:6">
       <c r="A20" s="16" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B20" s="17" t="s">
         <v>7</v>
       </c>
       <c r="C20" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="D20" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="D20" s="17" t="s">
+      <c r="E20" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="E20" s="17" t="s">
-        <v>57</v>
-      </c>
       <c r="F20" s="10">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="16" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B21" s="17" t="s">
         <v>7</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="F21" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="B22" s="17" t="s">
-        <v>7</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="B22" s="9"/>
       <c r="C22" s="17" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="E22" s="17" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="F22" s="10">
         <v>1</v>
@@ -1968,39 +1970,37 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="16" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B23" s="17" t="s">
         <v>7</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="E23" s="17" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="F23" s="10">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="B24" s="17" t="s">
-        <v>7</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="B24" s="9"/>
       <c r="C24" s="17" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="E24" s="17" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="F24" s="10">
         <v>1</v>
@@ -2008,39 +2008,35 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="B25" s="17" t="s">
-        <v>7</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="B25" s="9"/>
       <c r="C25" s="17" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="E25" s="17" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="F25" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="B26" s="17" t="s">
-        <v>7</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="B26" s="9"/>
       <c r="C26" s="17" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="E26" s="17" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="F26" s="10">
         <v>1</v>
@@ -2048,99 +2044,93 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="16" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B27" s="17" t="s">
         <v>7</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="E27" s="17" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="F27" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="B28" s="17" t="s">
-        <v>82</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="B28" s="9"/>
       <c r="C28" s="17" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="E28" s="17" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="F28" s="10">
         <v>1</v>
       </c>
     </row>
-    <row r="29" ht="28" spans="1:6">
+    <row r="29" spans="1:6">
       <c r="A29" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="B29" s="17" t="s">
-        <v>85</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="B29" s="9"/>
       <c r="C29" s="17" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="E29" s="17" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="F29" s="10">
         <v>1</v>
       </c>
     </row>
-    <row r="30" ht="28" spans="1:6">
+    <row r="30" ht="27" spans="1:6">
       <c r="A30" s="16" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>7</v>
+        <v>91</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D30" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="E30" s="17" t="s">
         <v>90</v>
-      </c>
-      <c r="E30" s="17" t="s">
-        <v>88</v>
       </c>
       <c r="F30" s="10">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" ht="27" spans="1:6">
       <c r="A31" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="B31" s="17" t="s">
-        <v>92</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="B31" s="9"/>
       <c r="C31" s="17" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D31" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="E31" s="17" t="s">
         <v>94</v>
-      </c>
-      <c r="E31" s="17" t="s">
-        <v>95</v>
       </c>
       <c r="F31" s="10">
         <v>1</v>
@@ -2148,41 +2138,61 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="16" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B32" s="17" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E32" s="17" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="F32" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="B33" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="C33" s="19" t="s">
+      <c r="A33" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="D33" s="19" t="s">
+      <c r="B33" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="E33" s="19" t="s">
+      <c r="C33" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="F33" s="13">
+      <c r="D33" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="E33" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="F33" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="B34" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="C34" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="D34" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="E34" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="F34" s="13">
         <v>1</v>
       </c>
     </row>
